--- a/AUDIO/MusicClassification/experiment_results.xlsx
+++ b/AUDIO/MusicClassification/experiment_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Model training" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Model</t>
   </si>
@@ -222,13 +222,43 @@
     <t>Pog_MusicClf_Train version 21</t>
   </si>
   <si>
-    <t>melspec_iter2_ver2_resnext_run1n2</t>
-  </si>
-  <si>
-    <t>CosineAnnealingWarmRestarts (T_0=15)</t>
-  </si>
-  <si>
     <t>Early stopping at epoch 24</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_MelSpec_Aug version1</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Resnext, melspec_iter2_ver2_resnext_run1</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Resnext, melspec_aug_resnext_run2_fold0</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train version 30</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 19</t>
+  </si>
+  <si>
+    <t>CosineAnnealingWarmRestarts (T_0=10)</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train.ipynb pin revision: RESNET50_VAL_LOSS_1.5116</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Resnext, melspec_aug_resnet_run1_fold0</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 19, early stopping at epoch 30</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train version 33</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Resnext, melspec_aug_effnet_run3</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 9, early stopping at epoch 21</t>
   </si>
 </sst>
 </file>
@@ -613,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -623,7 +653,7 @@
     <col min="3" max="3" width="10.08984375" customWidth="1"/>
     <col min="4" max="4" width="7.81640625" customWidth="1"/>
     <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.36328125" customWidth="1"/>
     <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -1103,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
@@ -1122,7 +1152,7 @@
         <v>64</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>34</v>
@@ -1134,65 +1164,188 @@
         <v>22</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.51895999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.5015000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.51536000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.7539999999999999E-3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.5306999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.51417000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8.3169999999999997E-3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.5116000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AUDIO/MusicClassification/experiment_results.xlsx
+++ b/AUDIO/MusicClassification/experiment_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
   </bookViews>
   <sheets>
     <sheet name="Model training" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
   <si>
     <t>Model</t>
   </si>
@@ -259,6 +259,84 @@
   </si>
   <si>
     <t>Best loss at epoch 9, early stopping at epoch 21</t>
+  </si>
+  <si>
+    <t>224, 224</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy.ipynb pin revision: RESNEXT50_256by313_mixup</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_resnext_mixup_run1_fold0</t>
+  </si>
+  <si>
+    <t>mel_spec_256by313</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 21</t>
+  </si>
+  <si>
+    <t>Yes (Mixup used)</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train version 36</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_aug_resnext_mixup_run2</t>
+  </si>
+  <si>
+    <t>Best loss for fold 2, data at google drive model/CV/AUG_RESNEXT50</t>
+  </si>
+  <si>
+    <t>0.4978 (with ensemble of 4 folds models), 0.50339 (with best fold 1 model)</t>
+  </si>
+  <si>
+    <t>0.45628 (with ensemble of 5 folds models)</t>
+  </si>
+  <si>
+    <t>[1.4909558296203613, 1.4834924936294556, 1.5110487937927246, 1.5209907293319702, 1.4781036376953125]</t>
+  </si>
+  <si>
+    <t>[0.5090406537055969, 0.5107985734939575, 0.5055248737335205, 0.5045203566551208, 0.5089173316955566]</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy.ipynb pin revision: Resnext50_5foldsCV</t>
+  </si>
+  <si>
+    <t>Data at gdrive mode/CV/RESNEXT50</t>
+  </si>
+  <si>
+    <t>LinearWithWarmup</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy.ipynb</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_aug_resnext_mixup_run5</t>
+  </si>
+  <si>
+    <t>gdrive mel_spec_44100</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 14, best f1 at epoch 16</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train version 38</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_aug_resnext_mixup_run4</t>
+  </si>
+  <si>
+    <t>Best loss, f1 at epoch 15</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy.ipynb Resnext50_1.468_nofinetune</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_resnext50_run6</t>
+  </si>
+  <si>
+    <t>Best loss at epoch 10, best f1 at epoch 15</t>
   </si>
 </sst>
 </file>
@@ -348,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,6 +439,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1345,6 +1424,360 @@
       </c>
       <c r="T12" s="7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.41836000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.5112000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.50804000000000005</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.4964999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.50778000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1.5394000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1.4678</v>
+      </c>
+      <c r="M18">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/AUDIO/MusicClassification/experiment_results.xlsx
+++ b/AUDIO/MusicClassification/experiment_results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>Model</t>
   </si>
@@ -337,6 +337,30 @@
   </si>
   <si>
     <t>Best loss at epoch 10, best f1 at epoch 15</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy-temp.ipynb RESNEXT50_44100_5folds</t>
+  </si>
+  <si>
+    <t>[1.467835783958435, 1.4466280937194824, 1.456633448600769, 1.451827049255371, 1.4903143644332886]</t>
+  </si>
+  <si>
+    <t>[0.5233551263809204, 0.5298844575881958, 0.5123053789138794, 0.5298844575881958, 0.5182114839553833]</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_resnext_cv_run1</t>
+  </si>
+  <si>
+    <t>[1.4609190225601196, 1.4520113468170166, 1.4422852993011475, 1.398002028465271, 1.4489082098007202]</t>
+  </si>
+  <si>
+    <t>[0.5371672511100769, 0.5286288261413574, 0.5301356315612793, 0.5331491827964783, 0.5295152068138123]</t>
+  </si>
+  <si>
+    <t>COLAB pog-musicclf-train-copy.ipynb EFFNET_B4_44100_5folds</t>
+  </si>
+  <si>
+    <t>Pog_MusicClf_Train, melspec_effnetb4_run1</t>
   </si>
 </sst>
 </file>
@@ -720,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1729,7 +1753,9 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>0.49940000000000001</v>
+      </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
@@ -1779,6 +1805,120 @@
       <c r="T18" s="7" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.52334999999999998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="L19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.52573999999999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="L20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
